--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A764614-70EC-B74E-AFF6-BDADAB9ED680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B4B99-BEDD-6240-BF33-2A46E2EC4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Austria</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Krasiczyn</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>Grecja</t>
+  </si>
+  <si>
+    <t>Napflio</t>
+  </si>
+  <si>
+    <t>Thasos</t>
+  </si>
+  <si>
+    <t>Poros</t>
   </si>
 </sst>
 </file>
@@ -463,142 +481,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="A3:D20"/>
+  <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
       <c r="D4">
+        <v>2021</v>
+      </c>
+      <c r="E4">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="D13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="D14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="D15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="D17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="D20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="D21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="D22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>2021</v>
+      <c r="D25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B4B99-BEDD-6240-BF33-2A46E2EC4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFB1049-F27E-D848-A61E-80A58731062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Malwina" sheetId="3" r:id="rId2"/>
     <sheet name="Tomasz" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Austria</t>
   </si>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>Poros</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Subotica</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Słowenia</t>
+  </si>
+  <si>
+    <t>Ljubljana</t>
+  </si>
+  <si>
+    <t>Bled</t>
+  </si>
+  <si>
+    <t>Postojnska Jama</t>
+  </si>
+  <si>
+    <t>Maribor</t>
   </si>
 </sst>
 </file>
@@ -481,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E27"/>
+  <dimension ref="B3:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,20 +570,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -561,7 +591,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>2021</v>
@@ -569,7 +599,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2021</v>
@@ -577,7 +607,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>2021</v>
@@ -585,26 +615,26 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="D19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>9</v>
-      </c>
-      <c r="D20">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>10</v>
       </c>
       <c r="D21">
         <v>2021</v>
@@ -612,7 +642,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>2021</v>
@@ -620,31 +650,93 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="D24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="D26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="D37">
         <v>2022</v>
       </c>
     </row>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFB1049-F27E-D848-A61E-80A58731062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1834F-193F-6B43-8723-DC98EA8C8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Austria</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Maribor</t>
+  </si>
+  <si>
+    <t>Zamek Podjamski</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,6 +729,14 @@
         <v>32</v>
       </c>
       <c r="D34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
         <v>2022</v>
       </c>
     </row>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1834F-193F-6B43-8723-DC98EA8C8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F50BC7-BC94-294B-BAA1-07B9BF4B7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Austria</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Zamek Podjamski</t>
+  </si>
+  <si>
+    <t>Pszczyna</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E37"/>
+  <dimension ref="B3:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,34 +621,34 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="D20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>9</v>
-      </c>
-      <c r="D21">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>10</v>
       </c>
       <c r="D22">
         <v>2021</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>2021</v>
@@ -661,56 +664,56 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="D25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D26">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="D27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="D29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D29">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="D30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>33</v>
-      </c>
-      <c r="D31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>30</v>
       </c>
       <c r="D32">
         <v>2022</v>
@@ -718,7 +721,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>2022</v>
@@ -726,7 +729,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>2022</v>
@@ -734,20 +737,28 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="D36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>2022</v>
       </c>
     </row>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F50BC7-BC94-294B-BAA1-07B9BF4B7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4660482-6F03-4B46-BFBA-EF238BEF86A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Austria</t>
   </si>
@@ -146,6 +146,72 @@
   </si>
   <si>
     <t>Pszczyna</t>
+  </si>
+  <si>
+    <t>Słowacja</t>
+  </si>
+  <si>
+    <t>Bratysława</t>
+  </si>
+  <si>
+    <t>Pieszczany</t>
+  </si>
+  <si>
+    <t>Niemcy</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Drezno</t>
+  </si>
+  <si>
+    <t>Miśnia</t>
+  </si>
+  <si>
+    <t>Monachium</t>
+  </si>
+  <si>
+    <t>Francja</t>
+  </si>
+  <si>
+    <t>Bułgaria</t>
+  </si>
+  <si>
+    <t>Rumunia</t>
+  </si>
+  <si>
+    <t>Belgia</t>
+  </si>
+  <si>
+    <t>Hiszpania</t>
+  </si>
+  <si>
+    <t>Portugalia</t>
+  </si>
+  <si>
+    <t>Litwa</t>
+  </si>
+  <si>
+    <t>Łotwa</t>
+  </si>
+  <si>
+    <t>Białoruś</t>
+  </si>
+  <si>
+    <t>Ukraina</t>
+  </si>
+  <si>
+    <t>Rosja</t>
+  </si>
+  <si>
+    <t>Turcja</t>
+  </si>
+  <si>
+    <t>Chorwacja</t>
+  </si>
+  <si>
+    <t>Dania</t>
   </si>
 </sst>
 </file>
@@ -517,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E38"/>
+  <dimension ref="B3:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,217 +615,326 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>2021</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32">
-        <v>2022</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>2022</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>2022</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <v>2022</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C72" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <v>2022</v>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4660482-6F03-4B46-BFBA-EF238BEF86A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3206A55A-2094-064E-A08E-4489BE6ABF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
+    <workbookView xWindow="700" yWindow="560" windowWidth="28020" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Razem" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Austria</t>
   </si>
@@ -212,16 +212,89 @@
   </si>
   <si>
     <t>Dania</t>
+  </si>
+  <si>
+    <t>Madryt</t>
+  </si>
+  <si>
+    <t>Sigüenza</t>
+  </si>
+  <si>
+    <t>Saragossa</t>
+  </si>
+  <si>
+    <t>El Escorial</t>
+  </si>
+  <si>
+    <t>Pampaluna</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>A Coruna</t>
+  </si>
+  <si>
+    <t>Santiago de Compostella</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>Fisterra</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Mount Rushmount</t>
+  </si>
+  <si>
+    <t>Park Narodowy Yellowstone</t>
+  </si>
+  <si>
+    <t>Park Narodowy Yosemite</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Park Narodowy Dolina Śmierci</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Tama Hoovera</t>
+  </si>
+  <si>
+    <t>Park Narodowy Zion</t>
+  </si>
+  <si>
+    <t>Park Narodowy Sekwoi</t>
+  </si>
+  <si>
+    <t>Winterset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,8 +320,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E76"/>
+  <dimension ref="B3:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,155 +718,189 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>2021</v>
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2021</v>
+      <c r="B41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
       <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>2021</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44">
-        <v>2022</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>2021</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <v>2021</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>2021</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>2021</v>
@@ -800,7 +908,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>2021</v>
@@ -808,7 +916,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>2021</v>
@@ -816,125 +924,272 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D54">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
         <v>2021</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>54</v>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>2021</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" t="s">
         <v>25</v>
       </c>
-      <c r="D60">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+      <c r="D64">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-      <c r="D61">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="D65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>36</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67">
-        <v>2022</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
         <v>31</v>
       </c>
-      <c r="D68">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+      <c r="D72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>32</v>
       </c>
-      <c r="D69">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+      <c r="D73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>34</v>
       </c>
-      <c r="D70">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>55</v>
+      <c r="D74">
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3206A55A-2094-064E-A08E-4489BE6ABF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1D5C4-B98E-9348-A303-FECCE430C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="560" windowWidth="28020" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>El Escorial</t>
   </si>
   <si>
-    <t>Pampaluna</t>
-  </si>
-  <si>
     <t>San Sebastian</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Winterset</t>
+  </si>
+  <si>
+    <t>Pampeluna</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="B3:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D92"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>2023</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>2023</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>2023</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>2023</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>2023</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
         <v>68</v>
-      </c>
-      <c r="C82" t="s">
-        <v>69</v>
       </c>
       <c r="D82">
         <v>2023</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D83">
         <v>2023</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84">
         <v>2023</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85">
         <v>2023</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D86">
         <v>2023</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D87">
         <v>2023</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88">
         <v>2023</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D89">
         <v>2023</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90">
         <v>2023</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <v>2023</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92">
         <v>2023</v>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1D5C4-B98E-9348-A303-FECCE430C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAAF08-CEB7-B74B-A32C-E2A1A72FDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="560" windowWidth="28020" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E97"/>
+  <dimension ref="B3:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,12 +811,20 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+    </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>2022</v>
@@ -824,75 +832,75 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D37">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="D36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>2021</v>
@@ -900,7 +908,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>2021</v>
@@ -908,7 +916,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>2021</v>
@@ -916,98 +924,98 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>12</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C61" t="s">
         <v>12</v>
       </c>
-      <c r="D62">
-        <v>2021</v>
+      <c r="D61">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>2022</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65">
-        <v>2022</v>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
       <c r="C67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
         <v>38</v>
       </c>
-      <c r="D68">
+      <c r="D67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
         <v>2022</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>2022</v>
@@ -1015,7 +1023,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71">
         <v>2022</v>
@@ -1023,7 +1031,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72">
         <v>2022</v>
@@ -1031,47 +1039,47 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D73">
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>18</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D76">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="D75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <v>2023</v>
+      </c>
+    </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>67</v>
-      </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D82">
         <v>2023</v>
@@ -1079,7 +1087,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D83">
         <v>2023</v>
@@ -1087,7 +1095,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D84">
         <v>2023</v>
@@ -1095,7 +1103,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D85">
         <v>2023</v>
@@ -1103,7 +1111,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86">
         <v>2023</v>
@@ -1111,7 +1119,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>2023</v>
@@ -1119,7 +1127,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D88">
         <v>2023</v>
@@ -1127,42 +1135,42 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D89">
         <v>2023</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>76</v>
+      <c r="C90" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D90">
         <v>2023</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="1" t="s">
-        <v>77</v>
+      <c r="C91" t="s">
+        <v>78</v>
       </c>
       <c r="D91">
         <v>2023</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92">
-        <v>2023</v>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>2021</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94">
         <v>2021</v>
@@ -1170,7 +1178,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>2021</v>
@@ -1178,17 +1186,9 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97">
         <v>2021</v>
       </c>
     </row>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAAF08-CEB7-B74B-A32C-E2A1A72FDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B4FAF-2B08-4B4A-944F-4AEB60298E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="560" windowWidth="28020" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Austria</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>Pampeluna</t>
+  </si>
+  <si>
+    <t>Kowno</t>
+  </si>
+  <si>
+    <t>Ryga</t>
+  </si>
+  <si>
+    <t>Rundale</t>
+  </si>
+  <si>
+    <t>Wzgørze Krzyży</t>
   </si>
 </sst>
 </file>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E96"/>
+  <dimension ref="B3:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,62 +865,74 @@
       <c r="B38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>51</v>
       </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>6</v>
-      </c>
-      <c r="D49">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>7</v>
       </c>
       <c r="D51">
         <v>2021</v>
@@ -916,7 +940,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>2021</v>
@@ -924,15 +948,15 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>2021</v>
@@ -940,90 +964,90 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>16</v>
       </c>
-      <c r="D55">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>46</v>
+      <c r="D57">
+        <v>2021</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61">
-        <v>2021</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D63">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+      <c r="D65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="D64">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="D66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>38</v>
       </c>
-      <c r="D67">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="D69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>29</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>33</v>
-      </c>
-      <c r="D69">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>31</v>
       </c>
       <c r="D71">
         <v>2022</v>
@@ -1031,7 +1055,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D72">
         <v>2022</v>
@@ -1039,18 +1063,23 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>34</v>
-      </c>
-      <c r="D73">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
       </c>
       <c r="D75">
         <v>2022</v>
@@ -1058,36 +1087,31 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>67</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>68</v>
-      </c>
-      <c r="D81">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>70</v>
       </c>
       <c r="D83">
         <v>2023</v>
@@ -1095,7 +1119,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D84">
         <v>2023</v>
@@ -1103,7 +1127,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D85">
         <v>2023</v>
@@ -1111,7 +1135,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86">
         <v>2023</v>
@@ -1119,7 +1143,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D87">
         <v>2023</v>
@@ -1127,7 +1151,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <v>2023</v>
@@ -1135,15 +1159,15 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <v>2023</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="1" t="s">
-        <v>77</v>
+      <c r="C90" t="s">
+        <v>75</v>
       </c>
       <c r="D90">
         <v>2023</v>
@@ -1151,34 +1175,34 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>78</v>
       </c>
-      <c r="D91">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+      <c r="D93">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>9</v>
-      </c>
-      <c r="D93">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>11</v>
       </c>
       <c r="D95">
         <v>2021</v>
@@ -1186,9 +1210,25 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
         <v>13</v>
       </c>
-      <c r="D96">
+      <c r="D98">
         <v>2021</v>
       </c>
     </row>

--- a/wyszukiwarka.xlsx
+++ b/wyszukiwarka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomaszterlecki/Sites/malwinatomasz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B4FAF-2B08-4B4A-944F-4AEB60298E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43297D2-4A17-F541-90F9-FFEBA61CBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="560" windowWidth="28020" windowHeight="17440" xr2:uid="{1C0C44FE-F02E-3945-A1FF-133BA94220CD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Austria</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Wzgørze Krzyży</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Malezja</t>
   </si>
 </sst>
 </file>
@@ -669,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52A312-6FE9-D645-A729-11D1AE7C4599}">
-  <dimension ref="B3:E98"/>
+  <dimension ref="B3:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,6 +723,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
@@ -732,7 +746,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -742,26 +756,15 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>58</v>
-      </c>
-      <c r="D21">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
       <c r="D23">
         <v>2023</v>
@@ -769,7 +772,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>2023</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>2023</v>
@@ -785,7 +788,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>2023</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>2023</v>
@@ -809,7 +812,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>2023</v>
@@ -817,45 +820,50 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="D30">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="D32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D32">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="D34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="D35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>23</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -863,116 +871,100 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+      <c r="D42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="D43">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="D41">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>41</v>
+      <c r="D45">
+        <v>2023</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D51">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
       <c r="D55">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>2021</v>
@@ -980,170 +972,170 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D57">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>54</v>
+      <c r="D61">
+        <v>2021</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>2021</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C69" t="s">
         <v>25</v>
       </c>
-      <c r="D65">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+      <c r="D69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="D66">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="D70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72">
-        <v>2022</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="D73">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+      <c r="D77">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>32</v>
       </c>
-      <c r="D74">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+      <c r="D78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
         <v>34</v>
       </c>
-      <c r="D75">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>55</v>
+      <c r="D79">
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>2022</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>67</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" t="s">
         <v>68</v>
-      </c>
-      <c r="D83">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>73</v>
       </c>
       <c r="D87">
         <v>2023</v>
@@ -1151,7 +1143,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D88">
         <v>2023</v>
@@ -1159,7 +1151,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D89">
         <v>2023</v>
@@ -1167,7 +1159,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D90">
         <v>2023</v>
@@ -1175,15 +1167,15 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91">
         <v>2023</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="1" t="s">
-        <v>77</v>
+      <c r="C92" t="s">
+        <v>72</v>
       </c>
       <c r="D92">
         <v>2023</v>
@@ -1191,44 +1183,76 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>78</v>
       </c>
-      <c r="D93">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="D97">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D95">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+      <c r="D99">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>10</v>
       </c>
-      <c r="D96">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
+      <c r="D100">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
         <v>11</v>
       </c>
-      <c r="D97">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
+      <c r="D101">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
         <v>13</v>
       </c>
-      <c r="D98">
+      <c r="D102">
         <v>2021</v>
       </c>
     </row>
